--- a/examples/FormulaExamples.xlsx
+++ b/examples/FormulaExamples.xlsx
@@ -19,13 +19,13 @@
     <t>Mon</t>
   </si>
   <si>
+    <t>Thur</t>
+  </si>
+  <si>
     <t>Tues</t>
   </si>
   <si>
     <t>Weds</t>
-  </si>
-  <si>
-    <t>Thur</t>
   </si>
   <si>
     <t>Breakfast</t>
@@ -429,13 +429,13 @@
         <v>15</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>20</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>22</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +463,13 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,13 +480,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>8</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
